--- a/data/pca/factorExposure/factorExposure_2019-03-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1208292060913514</v>
+        <v>-0.07616997886450141</v>
       </c>
       <c r="C2">
-        <v>0.0104925466673706</v>
+        <v>0.03487812562816452</v>
       </c>
       <c r="D2">
-        <v>-0.05140477666836183</v>
+        <v>0.008116678148448835</v>
       </c>
       <c r="E2">
-        <v>0.126978647218657</v>
+        <v>-0.04182206298599112</v>
       </c>
       <c r="F2">
-        <v>-0.1029313470310716</v>
+        <v>0.140854317709193</v>
       </c>
       <c r="G2">
-        <v>0.0401229548944658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1054568394840742</v>
+      </c>
+      <c r="H2">
+        <v>-0.06057779361994488</v>
+      </c>
+      <c r="I2">
+        <v>-0.03516745466377665</v>
+      </c>
+      <c r="J2">
+        <v>-0.06720384509133165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2139984952732057</v>
+        <v>-0.170327931126031</v>
       </c>
       <c r="C3">
-        <v>0.1526141967397502</v>
+        <v>0.08520369711956584</v>
       </c>
       <c r="D3">
-        <v>0.03251576707587522</v>
+        <v>-0.04798883812250806</v>
       </c>
       <c r="E3">
-        <v>0.3326342461293706</v>
+        <v>0.004211639365902337</v>
       </c>
       <c r="F3">
-        <v>-0.008169249848375498</v>
+        <v>0.3694891551947071</v>
       </c>
       <c r="G3">
-        <v>0.07816463881781596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.0937678112636126</v>
+      </c>
+      <c r="H3">
+        <v>-0.2805531444592052</v>
+      </c>
+      <c r="I3">
+        <v>-0.2045624163540508</v>
+      </c>
+      <c r="J3">
+        <v>-0.2407539746964998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09442442963412723</v>
+        <v>-0.07539459420462544</v>
       </c>
       <c r="C4">
-        <v>0.04309538866061319</v>
+        <v>0.03093415568054226</v>
       </c>
       <c r="D4">
-        <v>-0.0259971278379275</v>
+        <v>-0.03147251815060174</v>
       </c>
       <c r="E4">
-        <v>0.07483623329956553</v>
+        <v>-0.03890442299755839</v>
       </c>
       <c r="F4">
-        <v>-0.0292973991283066</v>
+        <v>0.08134938770317204</v>
       </c>
       <c r="G4">
-        <v>0.03233604259527374</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04660507384911989</v>
+      </c>
+      <c r="H4">
+        <v>-0.02318374802671749</v>
+      </c>
+      <c r="I4">
+        <v>-0.0318967492722743</v>
+      </c>
+      <c r="J4">
+        <v>-0.05673179442479555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01816135025380453</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.008559523162844881</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.01134936736711828</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005582839647787895</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.004330325536855659</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02077279940470117</v>
+      </c>
+      <c r="H6">
+        <v>0.001675734007790937</v>
+      </c>
+      <c r="I6">
+        <v>0.01556913895793934</v>
+      </c>
+      <c r="J6">
+        <v>-0.001662682678771832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04261293319503378</v>
+        <v>-0.03522613394805032</v>
       </c>
       <c r="C7">
-        <v>0.01531615501054225</v>
+        <v>-0.0021336406941691</v>
       </c>
       <c r="D7">
-        <v>-0.03742928283798207</v>
+        <v>-0.03959925231527945</v>
       </c>
       <c r="E7">
-        <v>0.07527126980646426</v>
+        <v>-0.02961567040554467</v>
       </c>
       <c r="F7">
-        <v>0.05319116038600673</v>
+        <v>0.05442721830080807</v>
       </c>
       <c r="G7">
-        <v>-0.01340082890447355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.005970502910216308</v>
+      </c>
+      <c r="H7">
+        <v>-0.04583700789366909</v>
+      </c>
+      <c r="I7">
+        <v>-0.002265744677666185</v>
+      </c>
+      <c r="J7">
+        <v>-0.05417586763248078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04328652286881587</v>
+        <v>-0.03140726730304232</v>
       </c>
       <c r="C8">
-        <v>0.0551455183814342</v>
+        <v>0.03742113334937733</v>
       </c>
       <c r="D8">
-        <v>-0.006643314974184172</v>
+        <v>-0.03490242034286681</v>
       </c>
       <c r="E8">
-        <v>0.07365537964046073</v>
+        <v>-0.01963423440238809</v>
       </c>
       <c r="F8">
-        <v>-0.003785764390538985</v>
+        <v>0.07188753364007461</v>
       </c>
       <c r="G8">
-        <v>0.01513181359334232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02162441624538658</v>
+      </c>
+      <c r="H8">
+        <v>-0.04340603235998742</v>
+      </c>
+      <c r="I8">
+        <v>-0.0368562379008547</v>
+      </c>
+      <c r="J8">
+        <v>-0.05918336954172451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.0825473973262348</v>
+        <v>-0.06159324112749708</v>
       </c>
       <c r="C9">
-        <v>0.0401856363618688</v>
+        <v>0.02695473215835542</v>
       </c>
       <c r="D9">
-        <v>-0.03427465982911091</v>
+        <v>-0.03496532185325639</v>
       </c>
       <c r="E9">
-        <v>0.06171469827609299</v>
+        <v>-0.03412900837481041</v>
       </c>
       <c r="F9">
-        <v>-0.01589105928703343</v>
+        <v>0.08198809036071136</v>
       </c>
       <c r="G9">
-        <v>0.04523752180266362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04318048188393409</v>
+      </c>
+      <c r="H9">
+        <v>-0.02161193440628768</v>
+      </c>
+      <c r="I9">
+        <v>-0.01452500882657651</v>
+      </c>
+      <c r="J9">
+        <v>-0.03467879835811313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.01617171872364073</v>
+        <v>-0.02550280179752177</v>
       </c>
       <c r="C10">
-        <v>-0.1567430813176054</v>
+        <v>-0.1309516817994613</v>
       </c>
       <c r="D10">
-        <v>0.03518747188043854</v>
+        <v>0.0827570658048718</v>
       </c>
       <c r="E10">
-        <v>0.07018147813654417</v>
+        <v>0.03342074488099032</v>
       </c>
       <c r="F10">
-        <v>-0.01303647670567532</v>
+        <v>0.06710448754590927</v>
       </c>
       <c r="G10">
-        <v>-0.01075940374630653</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02250810227870144</v>
+      </c>
+      <c r="H10">
+        <v>-0.00357291627258978</v>
+      </c>
+      <c r="I10">
+        <v>-0.1109400839191153</v>
+      </c>
+      <c r="J10">
+        <v>0.009669079092639104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05853314601670837</v>
+        <v>-0.05095472202755534</v>
       </c>
       <c r="C11">
-        <v>0.01526936236211743</v>
+        <v>0.02746713727042379</v>
       </c>
       <c r="D11">
-        <v>0.005736780427703082</v>
+        <v>-0.006575337775041675</v>
       </c>
       <c r="E11">
-        <v>0.04432756052600111</v>
+        <v>-0.009181800405564912</v>
       </c>
       <c r="F11">
-        <v>-0.005047700968273153</v>
+        <v>0.04026983598785959</v>
       </c>
       <c r="G11">
-        <v>-0.01249411076570626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.006853339087510022</v>
+      </c>
+      <c r="H11">
+        <v>-0.002077885065790415</v>
+      </c>
+      <c r="I11">
+        <v>0.01007757941164742</v>
+      </c>
+      <c r="J11">
+        <v>-0.04527171544314816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04494429431471271</v>
+        <v>-0.04798509359429296</v>
       </c>
       <c r="C12">
-        <v>0.01811384587085101</v>
+        <v>0.01914277637409929</v>
       </c>
       <c r="D12">
-        <v>0.002236458853468012</v>
+        <v>-0.01444381410305262</v>
       </c>
       <c r="E12">
-        <v>0.03064467835659115</v>
+        <v>-0.01126152857253543</v>
       </c>
       <c r="F12">
-        <v>0.009067324765388945</v>
+        <v>0.01540821525192115</v>
       </c>
       <c r="G12">
-        <v>0.003182131484795767</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.002277164527355843</v>
+      </c>
+      <c r="H12">
+        <v>-0.004145244289605049</v>
+      </c>
+      <c r="I12">
+        <v>0.006735839419787313</v>
+      </c>
+      <c r="J12">
+        <v>-0.0307905874798417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.0630067526266465</v>
+        <v>-0.04257955030769785</v>
       </c>
       <c r="C13">
-        <v>0.02909705621350209</v>
+        <v>0.03042567615631502</v>
       </c>
       <c r="D13">
-        <v>0.006069260752111554</v>
+        <v>0.001256690468780696</v>
       </c>
       <c r="E13">
-        <v>0.1121463613915285</v>
+        <v>-0.009925145877256283</v>
       </c>
       <c r="F13">
-        <v>-0.01274510984044636</v>
+        <v>0.1055524281052561</v>
       </c>
       <c r="G13">
-        <v>0.0001341826508773007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02225270526698672</v>
+      </c>
+      <c r="H13">
+        <v>-0.04558280744587248</v>
+      </c>
+      <c r="I13">
+        <v>-0.01088003605423778</v>
+      </c>
+      <c r="J13">
+        <v>-0.05793468772104389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03318912633823871</v>
+        <v>-0.02816711238329291</v>
       </c>
       <c r="C14">
-        <v>0.02084511017691644</v>
+        <v>0.01426156472347354</v>
       </c>
       <c r="D14">
-        <v>-0.02867851964408713</v>
+        <v>-0.01401451110258486</v>
       </c>
       <c r="E14">
-        <v>0.03272158122017523</v>
+        <v>-0.0262911002300198</v>
       </c>
       <c r="F14">
-        <v>-0.01494503176873123</v>
+        <v>0.04052572164623944</v>
       </c>
       <c r="G14">
-        <v>-0.02219422557435737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02904092709985905</v>
+      </c>
+      <c r="H14">
+        <v>-0.05162216961639628</v>
+      </c>
+      <c r="I14">
+        <v>-0.008839411048284064</v>
+      </c>
+      <c r="J14">
+        <v>-0.01344013521598391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04767220159341515</v>
+        <v>-0.04546640291971144</v>
       </c>
       <c r="C16">
-        <v>0.02842783641604893</v>
+        <v>0.03101121135917821</v>
       </c>
       <c r="D16">
-        <v>0.009050935371172006</v>
+        <v>-0.01539055080188623</v>
       </c>
       <c r="E16">
-        <v>0.03399571843499107</v>
+        <v>-0.006152062439363313</v>
       </c>
       <c r="F16">
-        <v>0.00979189751519275</v>
+        <v>0.03415539026146559</v>
       </c>
       <c r="G16">
-        <v>-0.006632657605533337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005249373888153007</v>
+      </c>
+      <c r="H16">
+        <v>-0.008794614926525529</v>
+      </c>
+      <c r="I16">
+        <v>0.008571172573260795</v>
+      </c>
+      <c r="J16">
+        <v>-0.03886924179291387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05437597922801699</v>
+        <v>-0.04950739250687313</v>
       </c>
       <c r="C19">
-        <v>0.04543667046896172</v>
+        <v>0.03994961654413566</v>
       </c>
       <c r="D19">
-        <v>-0.0008222498906957767</v>
+        <v>-0.02030772118934915</v>
       </c>
       <c r="E19">
-        <v>0.07800660052768522</v>
+        <v>-0.02032512345111447</v>
       </c>
       <c r="F19">
-        <v>0.01559830832453032</v>
+        <v>0.08006658007318108</v>
       </c>
       <c r="G19">
-        <v>-0.0298110586016225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01050618807808201</v>
+      </c>
+      <c r="H19">
+        <v>-0.08049899030372619</v>
+      </c>
+      <c r="I19">
+        <v>-0.0335254383707065</v>
+      </c>
+      <c r="J19">
+        <v>-0.05001964729005513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03390523980365592</v>
+        <v>-0.01831627354571495</v>
       </c>
       <c r="C20">
-        <v>0.0433532533081242</v>
+        <v>0.02296540551209517</v>
       </c>
       <c r="D20">
-        <v>-0.01378248652751968</v>
+        <v>-0.02073045907924067</v>
       </c>
       <c r="E20">
-        <v>0.06865015156139245</v>
+        <v>-0.01939857993575184</v>
       </c>
       <c r="F20">
-        <v>0.01106625760262414</v>
+        <v>0.06625978427213118</v>
       </c>
       <c r="G20">
-        <v>-0.008002321014123334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01474285072597433</v>
+      </c>
+      <c r="H20">
+        <v>-0.07019293379079193</v>
+      </c>
+      <c r="I20">
+        <v>-0.02634701790634898</v>
+      </c>
+      <c r="J20">
+        <v>-0.07570068661804914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03844230615780523</v>
+        <v>-0.0268728085653949</v>
       </c>
       <c r="C21">
-        <v>0.03245067421323035</v>
+        <v>0.0223252549710187</v>
       </c>
       <c r="D21">
-        <v>-0.001536193558598351</v>
+        <v>-0.02806860594098811</v>
       </c>
       <c r="E21">
-        <v>0.1086398274052856</v>
+        <v>-0.00850111017558884</v>
       </c>
       <c r="F21">
-        <v>-0.04569886247137096</v>
+        <v>0.07884022889164559</v>
       </c>
       <c r="G21">
-        <v>0.007464914480767594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03607785565691005</v>
+      </c>
+      <c r="H21">
+        <v>-0.02354443171104705</v>
+      </c>
+      <c r="I21">
+        <v>0.01150680829110984</v>
+      </c>
+      <c r="J21">
+        <v>-0.02720374753144632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.05114002434659467</v>
+        <v>-0.04429741824193086</v>
       </c>
       <c r="C24">
-        <v>0.02313899312080514</v>
+        <v>0.02173602049322173</v>
       </c>
       <c r="D24">
-        <v>0.0005700219187804522</v>
+        <v>-0.01004832673324143</v>
       </c>
       <c r="E24">
-        <v>0.04609080833263667</v>
+        <v>-0.01136020322240095</v>
       </c>
       <c r="F24">
-        <v>0.009522747239278935</v>
+        <v>0.04097895628839985</v>
       </c>
       <c r="G24">
-        <v>0.001889626927563073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.004519314072474223</v>
+      </c>
+      <c r="H24">
+        <v>-0.00751959554603491</v>
+      </c>
+      <c r="I24">
+        <v>0.006581698134909179</v>
+      </c>
+      <c r="J24">
+        <v>-0.04397206826843535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05192999538167716</v>
+        <v>-0.04730914651262339</v>
       </c>
       <c r="C25">
-        <v>0.01119002948689778</v>
+        <v>0.02043463274964829</v>
       </c>
       <c r="D25">
-        <v>0.003619321854417178</v>
+        <v>-0.007962430500939619</v>
       </c>
       <c r="E25">
-        <v>0.04295025805809397</v>
+        <v>-0.009351484172916587</v>
       </c>
       <c r="F25">
-        <v>-0.004771444455659967</v>
+        <v>0.04433626826125235</v>
       </c>
       <c r="G25">
-        <v>-0.001620107762965072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.004912478942369957</v>
+      </c>
+      <c r="H25">
+        <v>0.001102316868344835</v>
+      </c>
+      <c r="I25">
+        <v>0.01182444978105352</v>
+      </c>
+      <c r="J25">
+        <v>-0.03793636940531196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01880595827224335</v>
+        <v>-0.01657483532493832</v>
       </c>
       <c r="C26">
-        <v>0.02912499587525372</v>
+        <v>0.02274168702902189</v>
       </c>
       <c r="D26">
-        <v>-0.005215161793810806</v>
+        <v>-0.007799135497987922</v>
       </c>
       <c r="E26">
-        <v>0.03989107217170943</v>
+        <v>-0.0007291647288484755</v>
       </c>
       <c r="F26">
-        <v>-0.02261564024726398</v>
+        <v>0.04707206015645451</v>
       </c>
       <c r="G26">
-        <v>-0.02365516819597174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02247873763007815</v>
+      </c>
+      <c r="H26">
+        <v>-0.03283808322134946</v>
+      </c>
+      <c r="I26">
+        <v>0.00550565649556616</v>
+      </c>
+      <c r="J26">
+        <v>-0.03597961799074571</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1145603546375839</v>
+        <v>-0.07723041727688515</v>
       </c>
       <c r="C27">
-        <v>0.03515894483789067</v>
+        <v>0.02274494246398694</v>
       </c>
       <c r="D27">
-        <v>-0.02278643798132322</v>
+        <v>-0.01599506229066048</v>
       </c>
       <c r="E27">
-        <v>0.09784966853081931</v>
+        <v>-0.03532533858712372</v>
       </c>
       <c r="F27">
-        <v>-0.004524177152574861</v>
+        <v>0.06788695780316641</v>
       </c>
       <c r="G27">
-        <v>0.009992887501199942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01696832109286047</v>
+      </c>
+      <c r="H27">
+        <v>-0.01293945859992502</v>
+      </c>
+      <c r="I27">
+        <v>-0.02511960000276644</v>
+      </c>
+      <c r="J27">
+        <v>-0.0392370978259013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.01221872599528353</v>
+        <v>-0.03906442324883569</v>
       </c>
       <c r="C28">
-        <v>-0.240509708222782</v>
+        <v>-0.2053574602546029</v>
       </c>
       <c r="D28">
-        <v>0.03774951576035162</v>
+        <v>0.1174384982095298</v>
       </c>
       <c r="E28">
-        <v>0.04880516806712306</v>
+        <v>0.05081144203006843</v>
       </c>
       <c r="F28">
-        <v>-0.03048273696822436</v>
+        <v>0.05757453818030907</v>
       </c>
       <c r="G28">
-        <v>0.0002149935982844397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02403005768585476</v>
+      </c>
+      <c r="H28">
+        <v>0.00192661947734203</v>
+      </c>
+      <c r="I28">
+        <v>-0.160662430641265</v>
+      </c>
+      <c r="J28">
+        <v>0.007386980888269934</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02235795632452472</v>
+        <v>-0.02255622928447037</v>
       </c>
       <c r="C29">
-        <v>0.02405182743368921</v>
+        <v>0.01212850300115578</v>
       </c>
       <c r="D29">
-        <v>-0.03058453227559227</v>
+        <v>-0.01802312588193021</v>
       </c>
       <c r="E29">
-        <v>0.03351485375381413</v>
+        <v>-0.02633387437614467</v>
       </c>
       <c r="F29">
-        <v>-0.01673962369881202</v>
+        <v>0.03529677924059991</v>
       </c>
       <c r="G29">
-        <v>-0.009209537135615757</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03086179589513916</v>
+      </c>
+      <c r="H29">
+        <v>-0.0496028642313535</v>
+      </c>
+      <c r="I29">
+        <v>-0.00305640856062589</v>
+      </c>
+      <c r="J29">
+        <v>-0.007660441667416805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1155129942850058</v>
+        <v>-0.09267255100734795</v>
       </c>
       <c r="C30">
-        <v>0.0221056314077115</v>
+        <v>0.05899937864830667</v>
       </c>
       <c r="D30">
-        <v>-0.02735963834218086</v>
+        <v>0.01214568470870106</v>
       </c>
       <c r="E30">
-        <v>0.1096304659581294</v>
+        <v>-0.03249993173356493</v>
       </c>
       <c r="F30">
-        <v>0.01157451986096248</v>
+        <v>0.1027603675843723</v>
       </c>
       <c r="G30">
-        <v>-0.02144180726503018</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01397326206326609</v>
+      </c>
+      <c r="H30">
+        <v>-0.0206810683695931</v>
+      </c>
+      <c r="I30">
+        <v>0.01311546047160764</v>
+      </c>
+      <c r="J30">
+        <v>-0.03299995820535939</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.06607436929913005</v>
+        <v>-0.06278586776558615</v>
       </c>
       <c r="C31">
-        <v>0.01580467290984071</v>
+        <v>0.02277281570990558</v>
       </c>
       <c r="D31">
-        <v>-0.0177659264006657</v>
+        <v>0.001313286129816354</v>
       </c>
       <c r="E31">
-        <v>-0.01755939097017521</v>
+        <v>-0.02254538607052294</v>
       </c>
       <c r="F31">
-        <v>-0.02075855696826461</v>
+        <v>0.002114948835068957</v>
       </c>
       <c r="G31">
-        <v>-0.05190572275978524</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04180745685571906</v>
+      </c>
+      <c r="H31">
+        <v>-0.03044829718758249</v>
+      </c>
+      <c r="I31">
+        <v>-0.01413934841515635</v>
+      </c>
+      <c r="J31">
+        <v>-0.01146940010081282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06468192925714568</v>
+        <v>-0.04549696641735531</v>
       </c>
       <c r="C32">
-        <v>0.04041478902392217</v>
+        <v>0.0380266783716011</v>
       </c>
       <c r="D32">
-        <v>-0.0135865530309627</v>
+        <v>-0.03759523285163047</v>
       </c>
       <c r="E32">
-        <v>0.1065974292265928</v>
+        <v>-0.03153221771617026</v>
       </c>
       <c r="F32">
-        <v>0.01083110403921256</v>
+        <v>0.08725525682720525</v>
       </c>
       <c r="G32">
-        <v>-0.01941878084682051</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01343917085704547</v>
+      </c>
+      <c r="H32">
+        <v>-0.03565182755832248</v>
+      </c>
+      <c r="I32">
+        <v>-0.02296158186191588</v>
+      </c>
+      <c r="J32">
+        <v>-0.04707928345316199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06783126277861755</v>
+        <v>-0.05777307448293751</v>
       </c>
       <c r="C33">
-        <v>0.04668038145495774</v>
+        <v>0.05376721824615156</v>
       </c>
       <c r="D33">
-        <v>-0.01231721537656013</v>
+        <v>-0.007931072621982156</v>
       </c>
       <c r="E33">
-        <v>0.07755145501802463</v>
+        <v>-0.01304017894059223</v>
       </c>
       <c r="F33">
-        <v>-0.04547108763391431</v>
+        <v>0.07680763143283117</v>
       </c>
       <c r="G33">
-        <v>-0.01031325835169723</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03654775674708131</v>
+      </c>
+      <c r="H33">
+        <v>-0.03930055261779988</v>
+      </c>
+      <c r="I33">
+        <v>0.008890582660954363</v>
+      </c>
+      <c r="J33">
+        <v>-0.05093832661063876</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04829658333215463</v>
+        <v>-0.04588439228855493</v>
       </c>
       <c r="C34">
-        <v>0.02169740027014713</v>
+        <v>0.02504191476564777</v>
       </c>
       <c r="D34">
-        <v>-0.002269066953869168</v>
+        <v>-0.0175238279715344</v>
       </c>
       <c r="E34">
-        <v>0.02842866697837067</v>
+        <v>-0.016722891430045</v>
       </c>
       <c r="F34">
-        <v>0.00736882994886781</v>
+        <v>0.03132884200129758</v>
       </c>
       <c r="G34">
-        <v>-0.005028792441730635</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0004934044998384404</v>
+      </c>
+      <c r="H34">
+        <v>-0.01082289075442732</v>
+      </c>
+      <c r="I34">
+        <v>0.006140520951577403</v>
+      </c>
+      <c r="J34">
+        <v>-0.03482643728421427</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01242406591606389</v>
+        <v>-0.01539245266294179</v>
       </c>
       <c r="C36">
-        <v>0.0008386665468179697</v>
+        <v>0.0001119794788398012</v>
       </c>
       <c r="D36">
-        <v>-0.007789803365491899</v>
+        <v>-0.00531658330502013</v>
       </c>
       <c r="E36">
-        <v>0.02459097609249827</v>
+        <v>-0.0102218082799397</v>
       </c>
       <c r="F36">
-        <v>-0.01080063628687777</v>
+        <v>0.02703086023179579</v>
       </c>
       <c r="G36">
-        <v>-0.01460481540910051</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02379706814191915</v>
+      </c>
+      <c r="H36">
+        <v>-0.02854843345751974</v>
+      </c>
+      <c r="I36">
+        <v>0.005108037490599644</v>
+      </c>
+      <c r="J36">
+        <v>-9.29029045851145e-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05017306922388176</v>
+        <v>-0.03575120002391542</v>
       </c>
       <c r="C38">
-        <v>0.0166325275009223</v>
+        <v>0.009030133846195646</v>
       </c>
       <c r="D38">
-        <v>-0.02514971758130674</v>
+        <v>-0.007855943465538813</v>
       </c>
       <c r="E38">
-        <v>0.02685684569121745</v>
+        <v>-0.01383264091518965</v>
       </c>
       <c r="F38">
-        <v>9.955801685537473e-05</v>
+        <v>0.04777087527781296</v>
       </c>
       <c r="G38">
-        <v>0.0275479933826138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02869466022310401</v>
+      </c>
+      <c r="H38">
+        <v>-0.0149508141759375</v>
+      </c>
+      <c r="I38">
+        <v>0.01196696571314068</v>
+      </c>
+      <c r="J38">
+        <v>0.000195359194136732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07386216234505313</v>
+        <v>-0.05838591875362433</v>
       </c>
       <c r="C39">
-        <v>0.02031401535427872</v>
+        <v>0.03966509542694682</v>
       </c>
       <c r="D39">
-        <v>-0.004346801561253634</v>
+        <v>-0.01517713087244753</v>
       </c>
       <c r="E39">
-        <v>0.04391926334011269</v>
+        <v>-0.01791933662549727</v>
       </c>
       <c r="F39">
-        <v>-0.01365183754996788</v>
+        <v>0.05529469740985803</v>
       </c>
       <c r="G39">
-        <v>-0.0003989173409451378</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01720732206413645</v>
+      </c>
+      <c r="H39">
+        <v>-0.001360015632493942</v>
+      </c>
+      <c r="I39">
+        <v>0.02947873150314551</v>
+      </c>
+      <c r="J39">
+        <v>-0.04873834808246905</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.077453134263543</v>
+        <v>-0.05782937735837476</v>
       </c>
       <c r="C40">
-        <v>0.0448114441791694</v>
+        <v>0.04599067844625328</v>
       </c>
       <c r="D40">
-        <v>-0.01024958055960321</v>
+        <v>-0.0007297587145955925</v>
       </c>
       <c r="E40">
-        <v>0.1080284579815336</v>
+        <v>-0.02500528140743988</v>
       </c>
       <c r="F40">
-        <v>-0.02129557334361791</v>
+        <v>0.09492684961234767</v>
       </c>
       <c r="G40">
-        <v>0.02415114694557507</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02393177268770626</v>
+      </c>
+      <c r="H40">
+        <v>-0.05191691691806148</v>
+      </c>
+      <c r="I40">
+        <v>-0.01990942701135693</v>
+      </c>
+      <c r="J40">
+        <v>-0.1160082649582884</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.001333869768822</v>
+        <v>-0.002879956476518135</v>
       </c>
       <c r="C41">
-        <v>0.0210816686258654</v>
+        <v>0.01180442611308293</v>
       </c>
       <c r="D41">
-        <v>-0.02857400612839354</v>
+        <v>-0.007581344547543114</v>
       </c>
       <c r="E41">
-        <v>0.01352164100891245</v>
+        <v>-0.009334066372607202</v>
       </c>
       <c r="F41">
-        <v>-0.0339495419319166</v>
+        <v>0.01430311226900702</v>
       </c>
       <c r="G41">
-        <v>-0.01273064099425648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03744653332684215</v>
+      </c>
+      <c r="H41">
+        <v>-0.03051950414160817</v>
+      </c>
+      <c r="I41">
+        <v>-0.02370793178901378</v>
+      </c>
+      <c r="J41">
+        <v>-0.007553189323197491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1389538776860299</v>
+        <v>-0.2290561314934426</v>
       </c>
       <c r="C42">
-        <v>0.2390794401945947</v>
+        <v>0.2309856620642727</v>
       </c>
       <c r="D42">
-        <v>0.9184769639783622</v>
+        <v>-0.0661427360456196</v>
       </c>
       <c r="E42">
-        <v>-0.1041359093605805</v>
+        <v>0.9160230093452739</v>
       </c>
       <c r="F42">
-        <v>0.01192339230740785</v>
+        <v>-0.1485564991404641</v>
       </c>
       <c r="G42">
-        <v>-0.1305256934454086</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.002378065494038031</v>
+      </c>
+      <c r="H42">
+        <v>0.001619301304003874</v>
+      </c>
+      <c r="I42">
+        <v>-0.05035153825505913</v>
+      </c>
+      <c r="J42">
+        <v>-0.02641600292546747</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.002880102970803728</v>
+        <v>-0.006106195035648112</v>
       </c>
       <c r="C43">
-        <v>0.02257495433265312</v>
+        <v>0.01420557433880037</v>
       </c>
       <c r="D43">
-        <v>-0.01956643430998267</v>
+        <v>-0.005722490775448915</v>
       </c>
       <c r="E43">
-        <v>0.03659610030121124</v>
+        <v>-0.009516402234615445</v>
       </c>
       <c r="F43">
-        <v>-0.01201694064501011</v>
+        <v>0.0287599141549774</v>
       </c>
       <c r="G43">
-        <v>-0.01858527412999924</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02197203644657582</v>
+      </c>
+      <c r="H43">
+        <v>-0.03014666360156183</v>
+      </c>
+      <c r="I43">
+        <v>-0.01387500379780451</v>
+      </c>
+      <c r="J43">
+        <v>-0.01702907615388166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04126262958733085</v>
+        <v>-0.03086448709546771</v>
       </c>
       <c r="C44">
-        <v>0.05244700150621237</v>
+        <v>0.03699915818749661</v>
       </c>
       <c r="D44">
-        <v>-0.01646205401280276</v>
+        <v>-0.02242473699101414</v>
       </c>
       <c r="E44">
-        <v>0.1262193918866243</v>
+        <v>-0.01083270447774438</v>
       </c>
       <c r="F44">
-        <v>-0.08801478847236938</v>
+        <v>0.1215703889689631</v>
       </c>
       <c r="G44">
-        <v>-0.02077212528535125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06325124582942075</v>
+      </c>
+      <c r="H44">
+        <v>-0.1022138164759398</v>
+      </c>
+      <c r="I44">
+        <v>-0.02165550149646856</v>
+      </c>
+      <c r="J44">
+        <v>-0.03230159157573669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02875549172175845</v>
+        <v>-0.02577465068439063</v>
       </c>
       <c r="C46">
-        <v>0.0257558448510519</v>
+        <v>0.03145548910237855</v>
       </c>
       <c r="D46">
-        <v>-0.0326233485255714</v>
+        <v>-0.01490441554097121</v>
       </c>
       <c r="E46">
-        <v>0.03448883117287721</v>
+        <v>-0.02937996759304742</v>
       </c>
       <c r="F46">
-        <v>-0.02924269326826765</v>
+        <v>0.04775609946372386</v>
       </c>
       <c r="G46">
-        <v>-0.01841191416283717</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02743562034488202</v>
+      </c>
+      <c r="H46">
+        <v>-0.05090477474528773</v>
+      </c>
+      <c r="I46">
+        <v>-0.000900412369336659</v>
+      </c>
+      <c r="J46">
+        <v>-0.01847536593349177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08966038248234379</v>
+        <v>-0.09120508769887084</v>
       </c>
       <c r="C47">
-        <v>0.01220943787619854</v>
+        <v>0.01489162208197663</v>
       </c>
       <c r="D47">
-        <v>-0.01566538787488907</v>
+        <v>2.414832238398287e-05</v>
       </c>
       <c r="E47">
-        <v>-0.01927584351460643</v>
+        <v>-0.02492408668647254</v>
       </c>
       <c r="F47">
-        <v>-0.01587226033820499</v>
+        <v>-0.01083074266816862</v>
       </c>
       <c r="G47">
-        <v>-0.02214913439951674</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04298867310799557</v>
+      </c>
+      <c r="H47">
+        <v>-0.05451721897766293</v>
+      </c>
+      <c r="I47">
+        <v>-0.02286194032382375</v>
+      </c>
+      <c r="J47">
+        <v>-0.02366333573497379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.0178603038845598</v>
+        <v>-0.01898282274583223</v>
       </c>
       <c r="C48">
-        <v>0.02365963380767048</v>
+        <v>0.01611335909903674</v>
       </c>
       <c r="D48">
-        <v>-0.01552295449160113</v>
+        <v>-0.01060557408780974</v>
       </c>
       <c r="E48">
-        <v>0.03181902360447018</v>
+        <v>-0.0135926895095943</v>
       </c>
       <c r="F48">
-        <v>-0.01073704757178861</v>
+        <v>0.03014765228573995</v>
       </c>
       <c r="G48">
-        <v>-0.0050170566762976</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01581909344220357</v>
+      </c>
+      <c r="H48">
+        <v>-0.0214836308642269</v>
+      </c>
+      <c r="I48">
+        <v>-0.01175206424320633</v>
+      </c>
+      <c r="J48">
+        <v>-0.01129314962999254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.09246497467603634</v>
+        <v>-0.09002693799869754</v>
       </c>
       <c r="C50">
-        <v>0.037956108694554</v>
+        <v>0.0265380201568925</v>
       </c>
       <c r="D50">
-        <v>-0.0298855446164088</v>
+        <v>-0.02520389353280323</v>
       </c>
       <c r="E50">
-        <v>-0.01783832673297439</v>
+        <v>-0.0261306096970336</v>
       </c>
       <c r="F50">
-        <v>-0.004677292372747859</v>
+        <v>-0.005697232489789958</v>
       </c>
       <c r="G50">
-        <v>-0.04683892404781474</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.00154907686614141</v>
+      </c>
+      <c r="H50">
+        <v>-0.03710080380978228</v>
+      </c>
+      <c r="I50">
+        <v>0.0028726252447555</v>
+      </c>
+      <c r="J50">
+        <v>-0.006969260617575912</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.0559057251189724</v>
+        <v>-0.03964763618104467</v>
       </c>
       <c r="C51">
-        <v>-0.02105258946733915</v>
+        <v>-0.0009792553792096201</v>
       </c>
       <c r="D51">
-        <v>0.004274274156489647</v>
+        <v>0.016100682341906</v>
       </c>
       <c r="E51">
-        <v>0.0817395234350481</v>
+        <v>-0.00835888368431423</v>
       </c>
       <c r="F51">
-        <v>-0.05544875639650641</v>
+        <v>0.09754536906853231</v>
       </c>
       <c r="G51">
-        <v>-0.04803752288361805</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05188684462213953</v>
+      </c>
+      <c r="H51">
+        <v>-0.05150069818056063</v>
+      </c>
+      <c r="I51">
+        <v>-0.02067825292070046</v>
+      </c>
+      <c r="J51">
+        <v>-0.04220144340350376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.141897765192536</v>
+        <v>-0.1265544193631138</v>
       </c>
       <c r="C53">
-        <v>0.01321885163687463</v>
+        <v>0.03060972058043556</v>
       </c>
       <c r="D53">
-        <v>-0.0496966178479518</v>
+        <v>-0.006962160226945361</v>
       </c>
       <c r="E53">
-        <v>-0.05028191598375543</v>
+        <v>-0.0527739412163189</v>
       </c>
       <c r="F53">
-        <v>-0.007264701643595387</v>
+        <v>-0.041275096233585</v>
       </c>
       <c r="G53">
-        <v>-0.03452996442221336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02246030774044454</v>
+      </c>
+      <c r="H53">
+        <v>0.001781148622119589</v>
+      </c>
+      <c r="I53">
+        <v>-0.03952351023472665</v>
+      </c>
+      <c r="J53">
+        <v>-0.03271645000719158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02542250242617945</v>
+        <v>-0.02483552730006564</v>
       </c>
       <c r="C54">
-        <v>0.004591092446512688</v>
+        <v>-0.0004708359107883459</v>
       </c>
       <c r="D54">
-        <v>-0.02510884205424232</v>
+        <v>-0.005376454825645039</v>
       </c>
       <c r="E54">
-        <v>0.03649861939088291</v>
+        <v>-0.02608372599782638</v>
       </c>
       <c r="F54">
-        <v>-0.04998321113901968</v>
+        <v>0.03598680302797832</v>
       </c>
       <c r="G54">
-        <v>-0.0002994603467033535</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05278092833768662</v>
+      </c>
+      <c r="H54">
+        <v>-0.04291228721671714</v>
+      </c>
+      <c r="I54">
+        <v>-0.02875923405452876</v>
+      </c>
+      <c r="J54">
+        <v>0.007703281120680978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1011523716604495</v>
+        <v>-0.1001821741135892</v>
       </c>
       <c r="C55">
-        <v>-0.0002930659297819345</v>
+        <v>0.013233274859543</v>
       </c>
       <c r="D55">
-        <v>-0.03676778169868685</v>
+        <v>-0.0181095523937208</v>
       </c>
       <c r="E55">
-        <v>-0.01087218671809212</v>
+        <v>-0.03517117511466962</v>
       </c>
       <c r="F55">
-        <v>0.03404481923058009</v>
+        <v>-0.02709407962028457</v>
       </c>
       <c r="G55">
-        <v>0.006182797095608578</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.006316488971191183</v>
+      </c>
+      <c r="H55">
+        <v>-0.01081037904980826</v>
+      </c>
+      <c r="I55">
+        <v>-0.01920894017814107</v>
+      </c>
+      <c r="J55">
+        <v>-0.02823393503837938</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1772994201907592</v>
+        <v>-0.1668019091542907</v>
       </c>
       <c r="C56">
-        <v>-0.01361072294185173</v>
+        <v>0.007685973274488363</v>
       </c>
       <c r="D56">
-        <v>-0.08654822318132703</v>
+        <v>-0.001746496820959416</v>
       </c>
       <c r="E56">
-        <v>-0.1009791483174325</v>
+        <v>-0.08721217817948594</v>
       </c>
       <c r="F56">
-        <v>0.0706468040269765</v>
+        <v>-0.08511863132147553</v>
       </c>
       <c r="G56">
-        <v>-0.01270132825590954</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02807948965473807</v>
+      </c>
+      <c r="H56">
+        <v>0.04292115754825591</v>
+      </c>
+      <c r="I56">
+        <v>-0.03113262073367714</v>
+      </c>
+      <c r="J56">
+        <v>-0.0367286745022152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09003231936133797</v>
+        <v>-0.06746728262111899</v>
       </c>
       <c r="C57">
-        <v>0.03017217754825275</v>
+        <v>0.03704831558583162</v>
       </c>
       <c r="D57">
-        <v>-0.03078726764005899</v>
+        <v>0.001041707429832967</v>
       </c>
       <c r="E57">
-        <v>0.04197918706062698</v>
+        <v>-0.01002327741513835</v>
       </c>
       <c r="F57">
-        <v>-0.03588781791095809</v>
+        <v>0.06541194560178389</v>
       </c>
       <c r="G57">
-        <v>-0.04155989617377905</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02540544795907986</v>
+      </c>
+      <c r="H57">
+        <v>-0.03139768780765587</v>
+      </c>
+      <c r="I57">
+        <v>0.008135192875005505</v>
+      </c>
+      <c r="J57">
+        <v>-0.03799363166722151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1849774039335936</v>
+        <v>-0.20682152408078</v>
       </c>
       <c r="C58">
-        <v>0.0331767160828066</v>
+        <v>0.1209703347254313</v>
       </c>
       <c r="D58">
-        <v>0.01610372277602821</v>
+        <v>0.03641261817119066</v>
       </c>
       <c r="E58">
-        <v>0.125777544346386</v>
+        <v>0.004221563958928749</v>
       </c>
       <c r="F58">
-        <v>0.0637103259834183</v>
+        <v>0.2304996368675243</v>
       </c>
       <c r="G58">
-        <v>-0.05032324023499739</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1599411143609658</v>
+      </c>
+      <c r="H58">
+        <v>-0.3770746416928393</v>
+      </c>
+      <c r="I58">
+        <v>0.1841050609867684</v>
+      </c>
+      <c r="J58">
+        <v>0.7549735121118568</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.0190457341666387</v>
+        <v>-0.04089521398833665</v>
       </c>
       <c r="C59">
-        <v>-0.196296060888139</v>
+        <v>-0.163812707999349</v>
       </c>
       <c r="D59">
-        <v>0.00597808283658643</v>
+        <v>0.1140200774616105</v>
       </c>
       <c r="E59">
-        <v>0.06328300511709134</v>
+        <v>0.01278620433595116</v>
       </c>
       <c r="F59">
-        <v>-0.01435547534069944</v>
+        <v>0.0726612458743289</v>
       </c>
       <c r="G59">
-        <v>0.002062711010066361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.001453457873972635</v>
+      </c>
+      <c r="H59">
+        <v>0.02444550666613279</v>
+      </c>
+      <c r="I59">
+        <v>-0.06209636794356937</v>
+      </c>
+      <c r="J59">
+        <v>0.01423901113341738</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.192392307821991</v>
+        <v>-0.1844438681685239</v>
       </c>
       <c r="C60">
-        <v>-0.09025366055162323</v>
+        <v>-0.02278834644318147</v>
       </c>
       <c r="D60">
-        <v>-0.001188444088169254</v>
+        <v>0.07264777153840304</v>
       </c>
       <c r="E60">
-        <v>0.1879897516140557</v>
+        <v>-0.00948429978496932</v>
       </c>
       <c r="F60">
-        <v>-0.0446060948444245</v>
+        <v>0.2130367963227366</v>
       </c>
       <c r="G60">
-        <v>-0.005551385810272104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.07064373631888619</v>
+      </c>
+      <c r="H60">
+        <v>0.271663175624641</v>
+      </c>
+      <c r="I60">
+        <v>0.1003603246736769</v>
+      </c>
+      <c r="J60">
+        <v>-0.02640259478622287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.04463769900578616</v>
+        <v>-0.03782848905768092</v>
       </c>
       <c r="C61">
-        <v>0.01307352021049448</v>
+        <v>0.02378132855783671</v>
       </c>
       <c r="D61">
-        <v>-0.0009182668818594802</v>
+        <v>-0.01358073430308145</v>
       </c>
       <c r="E61">
-        <v>0.0382904874747016</v>
+        <v>-0.006766435227629281</v>
       </c>
       <c r="F61">
-        <v>-0.005894344523670347</v>
+        <v>0.03919274015800203</v>
       </c>
       <c r="G61">
-        <v>0.00250004716280959</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01037733274586719</v>
+      </c>
+      <c r="H61">
+        <v>0.004094555897503074</v>
+      </c>
+      <c r="I61">
+        <v>0.04061590164059012</v>
+      </c>
+      <c r="J61">
+        <v>-0.02326922192458424</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04266166748609262</v>
+        <v>-0.03125131260096413</v>
       </c>
       <c r="C63">
-        <v>0.01319013659635942</v>
+        <v>0.01761902112523569</v>
       </c>
       <c r="D63">
-        <v>-0.01931397774008479</v>
+        <v>-0.007691501878189612</v>
       </c>
       <c r="E63">
-        <v>0.04388640388527326</v>
+        <v>-0.01397717458491594</v>
       </c>
       <c r="F63">
-        <v>-0.01416918398721369</v>
+        <v>0.02951281855980975</v>
       </c>
       <c r="G63">
-        <v>-0.01933074150923397</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01240533161860929</v>
+      </c>
+      <c r="H63">
+        <v>-0.04895790354933847</v>
+      </c>
+      <c r="I63">
+        <v>-0.03485700789799809</v>
+      </c>
+      <c r="J63">
+        <v>-0.02987468302095313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.07544951300012294</v>
+        <v>-0.05930719215243883</v>
       </c>
       <c r="C64">
-        <v>0.05581025637161758</v>
+        <v>0.03420738360057768</v>
       </c>
       <c r="D64">
-        <v>-0.06327824568292545</v>
+        <v>-0.0347364869583896</v>
       </c>
       <c r="E64">
-        <v>0.05654118647789656</v>
+        <v>-0.04553093750655116</v>
       </c>
       <c r="F64">
-        <v>-0.04693876113933212</v>
+        <v>0.0501476212733015</v>
       </c>
       <c r="G64">
-        <v>0.04211008443954684</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05277051954952731</v>
+      </c>
+      <c r="H64">
+        <v>0.01275160886209659</v>
+      </c>
+      <c r="I64">
+        <v>-0.03593732571986382</v>
+      </c>
+      <c r="J64">
+        <v>-0.1019725822900433</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02020367681415295</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.007746110280019063</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.01163195233979048</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006661622023332509</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.000582230334660696</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02122720283169631</v>
+      </c>
+      <c r="H65">
+        <v>0.00558063400977337</v>
+      </c>
+      <c r="I65">
+        <v>0.01673567567367899</v>
+      </c>
+      <c r="J65">
+        <v>-0.003721569610329054</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.08872343023224701</v>
+        <v>-0.06989233227083637</v>
       </c>
       <c r="C66">
-        <v>0.03464175344232726</v>
+        <v>0.05391434337847086</v>
       </c>
       <c r="D66">
-        <v>-0.03890671128598831</v>
+        <v>-0.01327471143300325</v>
       </c>
       <c r="E66">
-        <v>0.07985438495124957</v>
+        <v>-0.04743469220170297</v>
       </c>
       <c r="F66">
-        <v>-0.03618349924025845</v>
+        <v>0.06988260538077143</v>
       </c>
       <c r="G66">
-        <v>-0.003950749672922976</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01574122354610091</v>
+      </c>
+      <c r="H66">
+        <v>0.0004343679076734085</v>
+      </c>
+      <c r="I66">
+        <v>0.03472759347815885</v>
+      </c>
+      <c r="J66">
+        <v>-0.07703583595681425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06048055026634654</v>
+        <v>-0.04680080859548239</v>
       </c>
       <c r="C67">
-        <v>-0.01214773567905484</v>
+        <v>-0.004904447274731809</v>
       </c>
       <c r="D67">
-        <v>-0.01213310032848802</v>
+        <v>0.005759791265046802</v>
       </c>
       <c r="E67">
-        <v>0.01965284107106598</v>
+        <v>-0.01006293212010348</v>
       </c>
       <c r="F67">
-        <v>-0.002781227365600352</v>
+        <v>0.03701324884852811</v>
       </c>
       <c r="G67">
-        <v>0.02217008786807008</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03493979199836429</v>
+      </c>
+      <c r="H67">
+        <v>0.006528163682060383</v>
+      </c>
+      <c r="I67">
+        <v>0.03826678282746809</v>
+      </c>
+      <c r="J67">
+        <v>-0.00985852632331448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.02718021583574979</v>
+        <v>-0.04778959287068891</v>
       </c>
       <c r="C68">
-        <v>-0.2464167997663401</v>
+        <v>-0.1987868051873164</v>
       </c>
       <c r="D68">
-        <v>0.02836975423859275</v>
+        <v>0.1327551152205726</v>
       </c>
       <c r="E68">
-        <v>0.04574334817131601</v>
+        <v>0.03006093483916802</v>
       </c>
       <c r="F68">
-        <v>-0.01577184233931289</v>
+        <v>0.05417824976390561</v>
       </c>
       <c r="G68">
-        <v>-0.02172095315649935</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.004094924054414822</v>
+      </c>
+      <c r="H68">
+        <v>0.01356547024996112</v>
+      </c>
+      <c r="I68">
+        <v>-0.1654035006691559</v>
+      </c>
+      <c r="J68">
+        <v>0.07831623256524987</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07029303229551521</v>
+        <v>-0.07231699379902465</v>
       </c>
       <c r="C69">
-        <v>0.01713024181012565</v>
+        <v>0.01962188625285415</v>
       </c>
       <c r="D69">
-        <v>-0.02721034685933835</v>
+        <v>-0.002897233563245887</v>
       </c>
       <c r="E69">
-        <v>-0.013641707757628</v>
+        <v>-0.03104456643212773</v>
       </c>
       <c r="F69">
-        <v>-0.008718607282436248</v>
+        <v>-0.001842172236940984</v>
       </c>
       <c r="G69">
-        <v>-0.0259213326813431</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02698473222453751</v>
+      </c>
+      <c r="H69">
+        <v>-0.0271391941366256</v>
+      </c>
+      <c r="I69">
+        <v>0.002678958731300281</v>
+      </c>
+      <c r="J69">
+        <v>-0.02785685500738102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.02057669128554433</v>
+        <v>-0.04745858761813637</v>
       </c>
       <c r="C71">
-        <v>-0.2808284089606298</v>
+        <v>-0.2127348943473374</v>
       </c>
       <c r="D71">
-        <v>0.03408181583593422</v>
+        <v>0.1479427283306387</v>
       </c>
       <c r="E71">
-        <v>0.07632818640390149</v>
+        <v>0.05226838302684677</v>
       </c>
       <c r="F71">
-        <v>-0.02140080078978937</v>
+        <v>0.07767204140931558</v>
       </c>
       <c r="G71">
-        <v>-0.02495164938521368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01417310224352224</v>
+      </c>
+      <c r="H71">
+        <v>0.02234840878831305</v>
+      </c>
+      <c r="I71">
+        <v>-0.138276450845506</v>
+      </c>
+      <c r="J71">
+        <v>0.04110063031870857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.122220106953377</v>
+        <v>-0.126998442627499</v>
       </c>
       <c r="C72">
-        <v>-0.003962688084010294</v>
+        <v>0.02713574124985305</v>
       </c>
       <c r="D72">
-        <v>-0.04805249950533301</v>
+        <v>-0.004296121124991799</v>
       </c>
       <c r="E72">
-        <v>0.08847189436232979</v>
+        <v>-0.06294854075952089</v>
       </c>
       <c r="F72">
-        <v>0.02111980871971906</v>
+        <v>0.08303551155775471</v>
       </c>
       <c r="G72">
-        <v>0.001230512598373857</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03823664833496526</v>
+      </c>
+      <c r="H72">
+        <v>0.01955108407391867</v>
+      </c>
+      <c r="I72">
+        <v>0.08027173170767615</v>
+      </c>
+      <c r="J72">
+        <v>0.08490959956492092</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2939566568299538</v>
+        <v>-0.2682011906609808</v>
       </c>
       <c r="C73">
-        <v>-0.1696101832956139</v>
+        <v>-0.02925608561452149</v>
       </c>
       <c r="D73">
-        <v>0.06811744320672308</v>
+        <v>0.1257373202315723</v>
       </c>
       <c r="E73">
-        <v>0.3274425524518248</v>
+        <v>0.03327720496673351</v>
       </c>
       <c r="F73">
-        <v>-0.006664182824952603</v>
+        <v>0.3145243073973198</v>
       </c>
       <c r="G73">
-        <v>0.04773818021047142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1783085311953849</v>
+      </c>
+      <c r="H73">
+        <v>0.4592107813235763</v>
+      </c>
+      <c r="I73">
+        <v>0.2901013275753623</v>
+      </c>
+      <c r="J73">
+        <v>-0.04576172409959051</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1626871823346959</v>
+        <v>-0.1518331294768581</v>
       </c>
       <c r="C74">
-        <v>0.004073739886680717</v>
+        <v>0.02599080928931461</v>
       </c>
       <c r="D74">
-        <v>-0.04596924196178392</v>
+        <v>0.004417961134552327</v>
       </c>
       <c r="E74">
-        <v>-0.03272694406658986</v>
+        <v>-0.05078054637408748</v>
       </c>
       <c r="F74">
-        <v>0.0507820871651858</v>
+        <v>-0.05520247637090179</v>
       </c>
       <c r="G74">
-        <v>-0.05993953910006755</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01994027149265418</v>
+      </c>
+      <c r="H74">
+        <v>0.03025307069513488</v>
+      </c>
+      <c r="I74">
+        <v>-0.02177729868556302</v>
+      </c>
+      <c r="J74">
+        <v>-0.08587874383850214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2335587637627223</v>
+        <v>-0.2433846946185567</v>
       </c>
       <c r="C75">
-        <v>0.002421907651322058</v>
+        <v>0.02950258587470122</v>
       </c>
       <c r="D75">
-        <v>-0.07375426525151989</v>
+        <v>0.02097628764591914</v>
       </c>
       <c r="E75">
-        <v>-0.1257422985437089</v>
+        <v>-0.1054163142503938</v>
       </c>
       <c r="F75">
-        <v>0.01538850059295081</v>
+        <v>-0.1412187994065474</v>
       </c>
       <c r="G75">
-        <v>-0.0452949713248481</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.005602215539188643</v>
+      </c>
+      <c r="H75">
+        <v>0.02308625421471163</v>
+      </c>
+      <c r="I75">
+        <v>-0.08305108499921858</v>
+      </c>
+      <c r="J75">
+        <v>-0.01661044991157788</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2451174937923702</v>
+        <v>-0.2669632364607756</v>
       </c>
       <c r="C76">
-        <v>-0.01258898179161836</v>
+        <v>-0.0005841041330030922</v>
       </c>
       <c r="D76">
-        <v>-0.1128644029575406</v>
+        <v>-0.008416517031466101</v>
       </c>
       <c r="E76">
-        <v>-0.1324185216971626</v>
+        <v>-0.1313713696419112</v>
       </c>
       <c r="F76">
-        <v>0.06300505613865504</v>
+        <v>-0.1886191973165298</v>
       </c>
       <c r="G76">
-        <v>-0.03219709440838766</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05358437432894781</v>
+      </c>
+      <c r="H76">
+        <v>0.04420083798355817</v>
+      </c>
+      <c r="I76">
+        <v>-0.04902351393862055</v>
+      </c>
+      <c r="J76">
+        <v>-0.06274249613215661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1352485502063679</v>
+        <v>-0.1281898614765205</v>
       </c>
       <c r="C77">
-        <v>0.06364510270001686</v>
+        <v>0.06302672669189002</v>
       </c>
       <c r="D77">
-        <v>0.03158271661322263</v>
+        <v>-0.02463358653443677</v>
       </c>
       <c r="E77">
-        <v>0.1556858214702041</v>
+        <v>0.02759282784166441</v>
       </c>
       <c r="F77">
-        <v>-0.02677908585590734</v>
+        <v>0.1614645585362345</v>
       </c>
       <c r="G77">
-        <v>0.04448344962206091</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.004612323377763411</v>
+      </c>
+      <c r="H77">
+        <v>-0.225023483659442</v>
+      </c>
+      <c r="I77">
+        <v>-0.2489122807945559</v>
+      </c>
+      <c r="J77">
+        <v>-0.09422900396232038</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08651105773835292</v>
+        <v>-0.07949007797875064</v>
       </c>
       <c r="C78">
-        <v>0.05481209726460413</v>
+        <v>0.06348493396638297</v>
       </c>
       <c r="D78">
-        <v>0.009064613949653796</v>
+        <v>-0.04114978953252323</v>
       </c>
       <c r="E78">
-        <v>0.05429394716166753</v>
+        <v>-0.01175007236987551</v>
       </c>
       <c r="F78">
-        <v>-0.01000770041213622</v>
+        <v>0.07225454583227826</v>
       </c>
       <c r="G78">
-        <v>-0.01379090831889173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01012882363662663</v>
+      </c>
+      <c r="H78">
+        <v>-0.01986658926407234</v>
+      </c>
+      <c r="I78">
+        <v>-0.03031463345886981</v>
+      </c>
+      <c r="J78">
+        <v>-0.04508893439217449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.05621873734419301</v>
+        <v>-0.148475545850722</v>
       </c>
       <c r="C80">
-        <v>0.02443055696985988</v>
+        <v>-0.5188028501593118</v>
       </c>
       <c r="D80">
-        <v>0.08966796160151319</v>
+        <v>-0.8238981855770554</v>
       </c>
       <c r="E80">
-        <v>-0.03428774661699831</v>
+        <v>0.05295301078100947</v>
       </c>
       <c r="F80">
-        <v>0.3130616271548584</v>
+        <v>0.04827584150095638</v>
       </c>
       <c r="G80">
-        <v>0.9113935447408749</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04491472214106242</v>
+      </c>
+      <c r="H80">
+        <v>0.05367485440975183</v>
+      </c>
+      <c r="I80">
+        <v>0.03414653072311024</v>
+      </c>
+      <c r="J80">
+        <v>0.0959372081847281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1621049257584853</v>
+        <v>-0.1787096977652188</v>
       </c>
       <c r="C81">
-        <v>-0.006430747562621738</v>
+        <v>0.002674029581456459</v>
       </c>
       <c r="D81">
-        <v>-0.06425500432693376</v>
+        <v>0.009726074530154342</v>
       </c>
       <c r="E81">
-        <v>-0.1576846982396909</v>
+        <v>-0.08489036445202716</v>
       </c>
       <c r="F81">
-        <v>0.06960055214292457</v>
+        <v>-0.1561650484717431</v>
       </c>
       <c r="G81">
-        <v>-0.05732143280738942</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02946976511743278</v>
+      </c>
+      <c r="H81">
+        <v>0.01016646662910965</v>
+      </c>
+      <c r="I81">
+        <v>-0.05953305117110746</v>
+      </c>
+      <c r="J81">
+        <v>0.0008477164233292487</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09372827402697362</v>
+        <v>-0.07003853469940248</v>
       </c>
       <c r="C83">
-        <v>0.0662230536066012</v>
+        <v>0.05217785573802727</v>
       </c>
       <c r="D83">
-        <v>0.06459331874164853</v>
+        <v>-0.0130423877178916</v>
       </c>
       <c r="E83">
-        <v>0.01717501705419903</v>
+        <v>0.03543487549852775</v>
       </c>
       <c r="F83">
-        <v>-0.06463160850715521</v>
+        <v>0.04547071696617735</v>
       </c>
       <c r="G83">
-        <v>-0.01275687354127492</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05879049171257793</v>
+      </c>
+      <c r="H83">
+        <v>-0.02592622595349434</v>
+      </c>
+      <c r="I83">
+        <v>-0.02128351694365783</v>
+      </c>
+      <c r="J83">
+        <v>-0.07811852019584548</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2367995009751956</v>
+        <v>-0.2510316544375104</v>
       </c>
       <c r="C85">
-        <v>0.05321889444293078</v>
+        <v>0.04429371672213121</v>
       </c>
       <c r="D85">
-        <v>-0.06621297864648541</v>
+        <v>-0.01373524832416132</v>
       </c>
       <c r="E85">
-        <v>-0.1690335448339541</v>
+        <v>-0.09860408136283041</v>
       </c>
       <c r="F85">
-        <v>0.05238695744381634</v>
+        <v>-0.1889277736779112</v>
       </c>
       <c r="G85">
-        <v>-0.01816478905052711</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.008011292812695695</v>
+      </c>
+      <c r="H85">
+        <v>-0.0192514973570354</v>
+      </c>
+      <c r="I85">
+        <v>-0.05318954634688218</v>
+      </c>
+      <c r="J85">
+        <v>-0.06911381433073868</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04041363534436023</v>
+        <v>-0.02593223544085931</v>
       </c>
       <c r="C86">
-        <v>0.05759196857612058</v>
+        <v>0.05414972126517695</v>
       </c>
       <c r="D86">
-        <v>-0.02133091846810153</v>
+        <v>-0.03205559213235393</v>
       </c>
       <c r="E86">
-        <v>0.0636154765125696</v>
+        <v>-0.01397090199879339</v>
       </c>
       <c r="F86">
-        <v>0.004431817928074854</v>
+        <v>0.06584704248439702</v>
       </c>
       <c r="G86">
-        <v>-0.01658073397059713</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.006866213337850539</v>
+      </c>
+      <c r="H86">
+        <v>-0.06650109139034548</v>
+      </c>
+      <c r="I86">
+        <v>-0.02608530714833487</v>
+      </c>
+      <c r="J86">
+        <v>-0.03781670078671257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02922816047440447</v>
+        <v>-0.03413185164084119</v>
       </c>
       <c r="C87">
-        <v>-0.05228854032790682</v>
+        <v>-0.008510224114509963</v>
       </c>
       <c r="D87">
-        <v>0.002551868543741909</v>
+        <v>0.008249860315251685</v>
       </c>
       <c r="E87">
-        <v>0.09209675320806647</v>
+        <v>-0.005398111658567204</v>
       </c>
       <c r="F87">
-        <v>0.02786772852651736</v>
+        <v>0.09902074042109643</v>
       </c>
       <c r="G87">
-        <v>-0.01121279977395662</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02582208709161246</v>
+      </c>
+      <c r="H87">
+        <v>-0.01628414114962914</v>
+      </c>
+      <c r="I87">
+        <v>0.01126548332136355</v>
+      </c>
+      <c r="J87">
+        <v>-0.02019843799185583</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.0392192899262058</v>
+        <v>-0.02967680851535716</v>
       </c>
       <c r="C88">
-        <v>0.03331894094574843</v>
+        <v>0.01384049570804287</v>
       </c>
       <c r="D88">
-        <v>-0.008209006122052611</v>
+        <v>-0.01978457455155168</v>
       </c>
       <c r="E88">
-        <v>-0.006517835833486834</v>
+        <v>-0.01157691105674268</v>
       </c>
       <c r="F88">
-        <v>0.0126178205887461</v>
+        <v>-0.01324660762729428</v>
       </c>
       <c r="G88">
-        <v>-0.006702938296072415</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03733309106491108</v>
+      </c>
+      <c r="H88">
+        <v>-0.03462512718005423</v>
+      </c>
+      <c r="I88">
+        <v>0.02078333102603419</v>
+      </c>
+      <c r="J88">
+        <v>-0.0278127866559458</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.02724668751419702</v>
+        <v>-0.06903542443416337</v>
       </c>
       <c r="C89">
-        <v>-0.388708901825424</v>
+        <v>-0.3113495407976654</v>
       </c>
       <c r="D89">
-        <v>0.1071523341984493</v>
+        <v>0.2267813381522875</v>
       </c>
       <c r="E89">
-        <v>0.007393195325901195</v>
+        <v>0.07371990724701331</v>
       </c>
       <c r="F89">
-        <v>-0.03082188092910144</v>
+        <v>0.03709804680147032</v>
       </c>
       <c r="G89">
-        <v>-0.02615926697174441</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03557888237826297</v>
+      </c>
+      <c r="H89">
+        <v>-0.0478710342591997</v>
+      </c>
+      <c r="I89">
+        <v>-0.2527438950769785</v>
+      </c>
+      <c r="J89">
+        <v>0.07019774815361229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.0242200906667094</v>
+        <v>-0.04839308008724851</v>
       </c>
       <c r="C90">
-        <v>-0.3018662184172805</v>
+        <v>-0.2759786602375005</v>
       </c>
       <c r="D90">
-        <v>0.05736082911526851</v>
+        <v>0.1803570030583295</v>
       </c>
       <c r="E90">
-        <v>0.04756787510302231</v>
+        <v>0.05838305739557233</v>
       </c>
       <c r="F90">
-        <v>-0.03343365043365559</v>
+        <v>0.03625984511667778</v>
       </c>
       <c r="G90">
-        <v>-0.02493570320955394</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01953436361803732</v>
+      </c>
+      <c r="H90">
+        <v>-0.007587007450213253</v>
+      </c>
+      <c r="I90">
+        <v>-0.2212541467334462</v>
+      </c>
+      <c r="J90">
+        <v>0.0497172093969514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2739375685433555</v>
+        <v>-0.2926796422411213</v>
       </c>
       <c r="C91">
-        <v>0.04514539915698262</v>
+        <v>0.042873770654539</v>
       </c>
       <c r="D91">
-        <v>-0.07685925473961561</v>
+        <v>-0.00228969518986925</v>
       </c>
       <c r="E91">
-        <v>-0.2684862105034526</v>
+        <v>-0.09330492898761961</v>
       </c>
       <c r="F91">
-        <v>0.06588516514426448</v>
+        <v>-0.2801880291003049</v>
       </c>
       <c r="G91">
-        <v>0.000411868277335764</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02736267683981766</v>
+      </c>
+      <c r="H91">
+        <v>0.01178897428795854</v>
+      </c>
+      <c r="I91">
+        <v>-0.09342524905769117</v>
+      </c>
+      <c r="J91">
+        <v>-0.04331040581960413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.0533426614423274</v>
+        <v>-0.1079196004324269</v>
       </c>
       <c r="C92">
-        <v>-0.4031034916181345</v>
+        <v>-0.3727271281178324</v>
       </c>
       <c r="D92">
-        <v>0.1741267604620508</v>
+        <v>0.2163562334219812</v>
       </c>
       <c r="E92">
-        <v>-0.08514896991792748</v>
+        <v>0.09634059316010984</v>
       </c>
       <c r="F92">
-        <v>0.0630807426817076</v>
+        <v>-0.1273347648522383</v>
       </c>
       <c r="G92">
-        <v>0.06159162825869563</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.08839381400005947</v>
+      </c>
+      <c r="H92">
+        <v>-0.4466703934174714</v>
+      </c>
+      <c r="I92">
+        <v>0.6595734356223384</v>
+      </c>
+      <c r="J92">
+        <v>-0.3248934708039301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.01487806838727928</v>
+        <v>-0.05442006506561994</v>
       </c>
       <c r="C93">
-        <v>-0.3663291357365575</v>
+        <v>-0.3270188301277232</v>
       </c>
       <c r="D93">
-        <v>0.08826047733084326</v>
+        <v>0.23060204834333</v>
       </c>
       <c r="E93">
-        <v>-0.02475313976528774</v>
+        <v>0.09434542683272111</v>
       </c>
       <c r="F93">
-        <v>0.001853652473968376</v>
+        <v>0.005139693066006718</v>
       </c>
       <c r="G93">
-        <v>0.02048355210199855</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03243708323258874</v>
+      </c>
+      <c r="H93">
+        <v>0.02115077362362246</v>
+      </c>
+      <c r="I93">
+        <v>-0.1573037292931129</v>
+      </c>
+      <c r="J93">
+        <v>0.07161560809625048</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2853508059366963</v>
+        <v>-0.3039122565185898</v>
       </c>
       <c r="C94">
-        <v>-0.07561805528888521</v>
+        <v>0.0005672471602048933</v>
       </c>
       <c r="D94">
-        <v>-0.05447687626958447</v>
+        <v>0.04719540759100314</v>
       </c>
       <c r="E94">
-        <v>-0.3817974116565612</v>
+        <v>-0.1329943210931762</v>
       </c>
       <c r="F94">
-        <v>0.3807118504052767</v>
+        <v>-0.3450229668911727</v>
       </c>
       <c r="G94">
-        <v>-0.1589288723961471</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.21244993223355</v>
+      </c>
+      <c r="H94">
+        <v>-0.1182852423502063</v>
+      </c>
+      <c r="I94">
+        <v>-0.02775655740849765</v>
+      </c>
+      <c r="J94">
+        <v>0.1461525117940762</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1864682164988659</v>
+        <v>-0.1343386744049806</v>
       </c>
       <c r="C95">
-        <v>-0.01501001334874182</v>
+        <v>0.0776693523487295</v>
       </c>
       <c r="D95">
-        <v>0.001556849747464075</v>
+        <v>0.06793675417681577</v>
       </c>
       <c r="E95">
-        <v>-0.3517977877198056</v>
+        <v>-0.03507628951273623</v>
       </c>
       <c r="F95">
-        <v>-0.8164032389096146</v>
+        <v>-0.08114130219746546</v>
       </c>
       <c r="G95">
-        <v>0.2643150338421872</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8950625649062544</v>
+      </c>
+      <c r="H95">
+        <v>0.1753685447641628</v>
+      </c>
+      <c r="I95">
+        <v>0.1036458744239765</v>
+      </c>
+      <c r="J95">
+        <v>0.2506302504788102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2279110429145236</v>
+        <v>-0.2068156756266958</v>
       </c>
       <c r="C98">
-        <v>-0.1094568808096451</v>
+        <v>-0.0247831513979562</v>
       </c>
       <c r="D98">
-        <v>0.04023530958718902</v>
+        <v>0.09026855868663235</v>
       </c>
       <c r="E98">
-        <v>0.08420484079927329</v>
+        <v>0.02996912530368856</v>
       </c>
       <c r="F98">
-        <v>-0.03832522546837167</v>
+        <v>0.1649394487114601</v>
       </c>
       <c r="G98">
-        <v>-0.02267260952956893</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08584919088505631</v>
+      </c>
+      <c r="H98">
+        <v>0.3173280809129718</v>
+      </c>
+      <c r="I98">
+        <v>0.1668467205731723</v>
+      </c>
+      <c r="J98">
+        <v>0.02760907880282043</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02229758465956001</v>
+        <v>-0.01644551594664612</v>
       </c>
       <c r="C101">
-        <v>0.02372343077212088</v>
+        <v>0.02353635296782675</v>
       </c>
       <c r="D101">
-        <v>-0.03194698986854405</v>
+        <v>-0.02014599490703128</v>
       </c>
       <c r="E101">
-        <v>0.03436376702236177</v>
+        <v>-0.03350706556698181</v>
       </c>
       <c r="F101">
-        <v>-0.01659394814644746</v>
+        <v>0.06463971398693885</v>
       </c>
       <c r="G101">
-        <v>-0.009015575161578762</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01853958382517413</v>
+      </c>
+      <c r="H101">
+        <v>-0.1106489014564767</v>
+      </c>
+      <c r="I101">
+        <v>0.05359096337470362</v>
+      </c>
+      <c r="J101">
+        <v>0.1107624389668643</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1145184664133576</v>
+        <v>-0.1210600722565523</v>
       </c>
       <c r="C102">
-        <v>0.01978377727689044</v>
+        <v>0.01545690993473036</v>
       </c>
       <c r="D102">
-        <v>-0.04251554956768284</v>
+        <v>-0.01016920445287089</v>
       </c>
       <c r="E102">
-        <v>-0.09077790194607308</v>
+        <v>-0.0553406089124843</v>
       </c>
       <c r="F102">
-        <v>0.004696975488442782</v>
+        <v>-0.1003530218820884</v>
       </c>
       <c r="G102">
-        <v>0.01349424117967229</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01424430109957579</v>
+      </c>
+      <c r="H102">
+        <v>0.01803369048287672</v>
+      </c>
+      <c r="I102">
+        <v>-0.05937158330022382</v>
+      </c>
+      <c r="J102">
+        <v>-0.03779747170161285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01597271939560749</v>
+        <v>-0.03138057769746739</v>
       </c>
       <c r="C103">
-        <v>0.003212347783638325</v>
+        <v>0.001962436976816221</v>
       </c>
       <c r="D103">
-        <v>-0.01433030109972138</v>
+        <v>-0.0101256263692212</v>
       </c>
       <c r="E103">
-        <v>-0.02354777333453559</v>
+        <v>-0.02119693760228712</v>
       </c>
       <c r="F103">
-        <v>0.005737144713810993</v>
+        <v>-0.02695104217637087</v>
       </c>
       <c r="G103">
-        <v>-0.01132422713202511</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01200835993853924</v>
+      </c>
+      <c r="H103">
+        <v>-0.01302686146205442</v>
+      </c>
+      <c r="I103">
+        <v>-0.02550308608160264</v>
+      </c>
+      <c r="J103">
+        <v>-0.005316621153381162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
